--- a/17_spp_group_classifications.xlsx
+++ b/17_spp_group_classifications.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -408,12 +408,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -428,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -438,11 +450,76 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1086,7 +1163,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M3:N13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -1162,7 +1239,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -1242,7 +1319,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E3:F12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -1301,6 +1378,48 @@
   <dataFields count="1">
     <dataField name="Count of SP_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="4">
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="3">
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="3">
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1314,7 +1433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -1412,6 +1531,46 @@
   <dataFields count="1">
     <dataField name="Count of SP_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="4">
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="2">
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="2">
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1723,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E80"/>
     </sheetView>
   </sheetViews>
@@ -3089,7 +3248,7 @@
   <dimension ref="A2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3202,10 +3361,10 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -3222,10 +3381,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="8">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3254,10 +3413,10 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -3280,10 +3439,10 @@
       <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -3300,16 +3459,16 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="8">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -3326,10 +3485,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
